--- a/results/Students_Who_Lied_About_Participation.xlsx
+++ b/results/Students_Who_Lied_About_Participation.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,34 +496,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45622.54060237268</v>
+        <v>45623.6594640625</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1029@ualberta.ca</t>
+          <t>10114@ualberta.ca</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Topic 1: Carbon Taxes</t>
+          <t>Topic 3: Paying Employees to Relocate</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
@@ -540,43 +540,43 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45622.5582255787</v>
+        <v>45625.59845568287</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1029@ualberta.ca</t>
+          <t>1080@ualberta.ca</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Topic 9: Sale Prices</t>
+          <t>Topic 7: The Rising Cost of Keeping on Truckin’</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -584,27 +584,27 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45622.55862572917</v>
+        <v>45625.65316365741</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1041@ualberta.ca</t>
+          <t>10121@ualberta.ca</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Topic 9: Sale Prices</t>
+          <t>Topic 7: The Rising Cost of Keeping on Truckin’</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -628,43 +628,53 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45622.55907072916</v>
+        <v>45628.61032547454</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1044@ualberta.ca</t>
+          <t>1088@ualberta.ca</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Topic 9: Sale Prices</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
+          <t>Topic 7: The Rising Cost of Keeping on Truckin’</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Examining rising costs of trucking and its risks 2/2 made a clear introduction and introduced case clear and concise </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Opened well with topics and still went back to question to maintain organized train of thought 2/2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Incorporated some ideas from class and some outside class and included research to answer question but used graphs and charts to examine ideas through the graphs 2/2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Well concluded with clear concise summaries without going into too much detail or adding new information when concluding 2/2</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Very clear concise and well spoken, didnt read off a script and ensured being organized and well prepared </t>
+        </is>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -672,43 +682,43 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45622.55983332176</v>
+        <v>45628.64052996528</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1046@ualberta.ca</t>
+          <t>1097@ualberta.ca</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Topic 9: Sale Prices</t>
+          <t>Topic 6: Amazon’s Delivery Services</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -716,27 +726,27 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45622.57279172454</v>
+        <v>45628.6423144213</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1046@ualberta.ca</t>
+          <t>10114@ualberta.ca</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Topic 4: Labor Productivity During Recessions</t>
+          <t>Topic 6: Amazon’s Delivery Services</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -746,13 +756,13 @@
         <v>2</v>
       </c>
       <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
         <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -760,27 +770,27 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45622.57284271991</v>
+        <v>45630.64197569445</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1044@ualberta.ca</t>
+          <t>10112@ualberta.ca</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Topic 4: Labor Productivity During Recessions</t>
+          <t>Topic 2: Estimating the Effect of an iTunes Price Change</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -804,43 +814,43 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45622.57322243055</v>
+        <v>45630.64262980324</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1041@ualberta.ca</t>
+          <t>1099@ualberta.ca</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Topic 4: Labor Productivity During Recessions</t>
+          <t>Topic 2: Estimating the Effect of an iTunes Price Change</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -848,23 +858,23 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45622.5750946875</v>
+        <v>45630.65518804398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1029@ualberta.ca</t>
+          <t>10112@ualberta.ca</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -872,10 +882,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -884,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -892,53 +902,43 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>435</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45625.59956390046</v>
+        <v>45630.6847450463</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10142@ualberta.ca</t>
+          <t>1099@ualberta.ca</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Topic 7: The Rising Cost of Keeping on Truckin’</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Trucking and shipping are integral to everyone's daily life</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">How do the rising costs within the trucking industry impact consumers. </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Their points effectively conveyed course material understanding</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Effectively summarized their key points of stifling regulation which raise costs, and impact consumers. </t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clear and well spoken by all group members. </t>
-        </is>
+          <t>Topic 4: Labor Productivity During Recessions</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -946,14 +946,14 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>477</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45625.61651038194</v>
+        <v>45630.83196157408</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10142@ualberta.ca</t>
+          <t>1049@ualberta.ca</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -962,37 +962,27 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Topic 10: Gaining an Edge from Government Aircraft Subsidies</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The impact of subsidies on oligopolistic markets. </t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">How do subsidies impact the competitive advantage of firms within a given market. </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Effectively used course content to explain their topic. </t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Subsidy wars negatively impact competition and innovation. </t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Well spoken and clear voices.</t>
-        </is>
+          <t>Topic 2: Estimating the Effect of an iTunes Price Change</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1000,53 +990,43 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>570</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45625.68450074074</v>
+        <v>45631.5519641088</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10157@ualberta.ca</t>
+          <t>10133@ualberta.ca</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Topic 8: Brand-Name and Generic Drugs</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.5/2 good background</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>1.1/2 decent integration</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1.3/2 too much information provided</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1/2 not very clear conclusion</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0.5/2 read almost everything off their notes </t>
-        </is>
+          <t>Topic 5: Technology Choice at Home Versus Abroad</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1054,53 +1034,43 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>571</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45625.68903710648</v>
+        <v>45632.60078832176</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10157@ualberta.ca</t>
+          <t>10138@ualberta.ca</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Topic 3: Paying Employees to Relocate</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2/2 great background</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>1.3/2 not bad integration</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1.5/2 decent relationships to course topics</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>1/2 not very clear conclusion in my opinion</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>1.3/2 good organization of material</t>
-        </is>
+          <t>Topic 4: Labor Productivity During Recessions</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1108,14 +1078,14 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>699</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45628.64370631945</v>
+        <v>45632.62907061342</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10113@ualberta.ca</t>
+          <t>1094@ualberta.ca</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1124,11 +1094,11 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Topic 6: Amazon’s Delivery Services</t>
+          <t>Topic 4: Labor Productivity During Recessions</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1144,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1152,14 +1122,14 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>733</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45628.65453211805</v>
+        <v>45632.62961939815</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10113@ualberta.ca</t>
+          <t>1094@ualberta.ca</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1168,7 +1138,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1176,19 +1146,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1196,45 +1166,1053 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>898</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
+        <v>45632.63032973379</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1094@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Topic 6: Amazon’s Delivery Services</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45632.64529775463</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1056@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>52</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Topic 4: Labor Productivity During Recessions</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45632.64547019676</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1061@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>59</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Topic 4: Labor Productivity During Recessions</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45632.70281832176</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1073@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>18</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Topic 4: Labor Productivity During Recessions</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45632.94635432871</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10136@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>47</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Topic 2: Estimating the Effect of an iTunes Price Change</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45632.94839905093</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10136@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>51</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Topic 10: Gaining an Edge from Government Aircraft Subsidies</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45632.94874732639</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10136@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>51</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Topic 9: Sale Prices</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45622.54060237268</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1029@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>61</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Topic 1: Carbon Taxes</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45622.5582255787</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1029@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>61</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Topic 9: Sale Prices</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45622.55862572917</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1041@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>64</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Topic 9: Sale Prices</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45622.55907072916</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1044@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>63</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Topic 9: Sale Prices</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45622.55983332176</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1046@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>62</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Topic 9: Sale Prices</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45622.57279172454</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1046@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>62</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Topic 4: Labor Productivity During Recessions</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45622.57284271991</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1044@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>63</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Topic 4: Labor Productivity During Recessions</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45622.57322243055</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1041@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>64</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Topic 4: Labor Productivity During Recessions</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45622.5750946875</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1029@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>61</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Topic 4: Labor Productivity During Recessions</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45625.59956390046</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>10142@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>75</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Topic 7: The Rising Cost of Keeping on Truckin’</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Trucking and shipping are integral to everyone's daily life</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">How do the rising costs within the trucking industry impact consumers. </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Their points effectively conveyed course material understanding</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Effectively summarized their key points of stifling regulation which raise costs, and impact consumers. </t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clear and well spoken by all group members. </t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45625.61651038194</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>10142@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>75</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Topic 10: Gaining an Edge from Government Aircraft Subsidies</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The impact of subsidies on oligopolistic markets. </t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">How do subsidies impact the competitive advantage of firms within a given market. </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Effectively used course content to explain their topic. </t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Subsidy wars negatively impact competition and innovation. </t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Well spoken and clear voices.</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45625.68450074074</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>10157@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>65</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Topic 8: Brand-Name and Generic Drugs</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.5/2 good background</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1.1/2 decent integration</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1.3/2 too much information provided</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1/2 not very clear conclusion</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0.5/2 read almost everything off their notes </t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45625.68903710648</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>10157@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>65</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Topic 3: Paying Employees to Relocate</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2/2 great background</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1.3/2 not bad integration</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1.5/2 decent relationships to course topics</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1/2 not very clear conclusion in my opinion</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1.3/2 good organization of material</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45628.64370631945</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>10113@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>75</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Topic 6: Amazon’s Delivery Services</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45628.65453211805</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>10113@ualberta.ca</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>75</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Topic 5: Technology Choice at Home Versus Abroad</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="n">
         <v>45630.61598621528</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>1060@ualberta.ca</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>Section A04, 2-3 pm on Monday and Wednesday</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="E39" t="n">
         <v>61</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Topic 9: Sale Prices</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
         <v>1.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K39" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L39" t="n">
         <v>0</v>
       </c>
     </row>
